--- a/Meeting minutes.xlsx
+++ b/Meeting minutes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -26,14 +26,28 @@
   </si>
   <si>
     <t>Ending time</t>
+  </si>
+  <si>
+    <t>21.2.2022</t>
+  </si>
+  <si>
+    <t>Update on how much of the project has been completed (Week 2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -61,8 +75,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,34 +383,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Meeting minutes.xlsx
+++ b/Meeting minutes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>Update on how much of the project has been completed (Week 2)</t>
+  </si>
+  <si>
+    <t>27.2.2022</t>
+  </si>
+  <si>
+    <t>Discussing errors faced in project so far</t>
   </si>
 </sst>
 </file>
@@ -383,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,6 +430,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Meeting minutes.xlsx
+++ b/Meeting minutes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>Discussing errors faced in project so far</t>
+  </si>
+  <si>
+    <t>8.2.2022</t>
+  </si>
+  <si>
+    <t>Update on how much of the project has been completed (Week 4)</t>
   </si>
 </sst>
 </file>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,6 +450,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.74583333333333324</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Meeting minutes.xlsx
+++ b/Meeting minutes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Update on how much of the project has been completed (Week 4)</t>
+  </si>
+  <si>
+    <t>14.3.2022</t>
+  </si>
+  <si>
+    <t>Update on how much of the project has been completed (Week 5)</t>
   </si>
 </sst>
 </file>
@@ -395,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,6 +470,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.90625</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Meeting minutes.xlsx
+++ b/Meeting minutes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Update on how much of the project has been completed (Week 5)</t>
+  </si>
+  <si>
+    <t>29.3.2022</t>
+  </si>
+  <si>
+    <t>Update on how much of the project has been completed (Week 6+7)</t>
   </si>
 </sst>
 </file>
@@ -401,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,6 +490,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
